--- a/1_Result_Tables/6_ifo_qoq_evaluations_ifoCASTset/ifo_qoq_forecast_error_table_latest_eval_ifoCASTset.xlsx
+++ b/1_Result_Tables/6_ifo_qoq_evaluations_ifoCASTset/ifo_qoq_forecast_error_table_latest_eval_ifoCASTset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01800888999918606</v>
+        <v>0.08146426224612845</v>
       </c>
       <c r="C3">
-        <v>0.4104970900478339</v>
+        <v>0.4913395475084953</v>
       </c>
       <c r="D3">
-        <v>0.3287310257541356</v>
+        <v>0.5384525556271494</v>
       </c>
       <c r="E3">
-        <v>0.5733507004915365</v>
+        <v>0.7337932649099128</v>
       </c>
       <c r="F3">
-        <v>0.5865535953254288</v>
+        <v>0.7456470948380217</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09045094616771372</v>
+        <v>0.5801506038144637</v>
       </c>
       <c r="C4">
-        <v>0.3486585080885309</v>
+        <v>0.8159053342639054</v>
       </c>
       <c r="D4">
-        <v>0.211408574718985</v>
+        <v>4.070369851314529</v>
       </c>
       <c r="E4">
-        <v>0.4597918819628996</v>
+        <v>2.017515762345992</v>
       </c>
       <c r="F4">
-        <v>0.4619399973039441</v>
+        <v>1.975731026375135</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1427254232468607</v>
+        <v>0.2635203828962711</v>
       </c>
       <c r="C5">
-        <v>0.4224113011441835</v>
+        <v>1.232511031201218</v>
       </c>
       <c r="D5">
-        <v>0.3072463676176098</v>
+        <v>7.230600558527729</v>
       </c>
       <c r="E5">
-        <v>0.5542980855258385</v>
+        <v>2.688977604690625</v>
       </c>
       <c r="F5">
-        <v>0.5495221092976719</v>
+        <v>2.736177027977477</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -536,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08036450810639656</v>
+        <v>0.1794021269052618</v>
       </c>
       <c r="C6">
-        <v>0.3196628028222235</v>
+        <v>1.155750348923658</v>
       </c>
       <c r="D6">
-        <v>0.1585857042739273</v>
+        <v>7.068805655208574</v>
       </c>
       <c r="E6">
-        <v>0.3982282062761593</v>
+        <v>2.658722560781507</v>
       </c>
       <c r="F6">
-        <v>0.4007228019539012</v>
+        <v>2.712280759783512</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -559,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2338610401584399</v>
+        <v>0.3942472833595512</v>
       </c>
       <c r="C7">
-        <v>0.3140481449306428</v>
+        <v>1.646994786995847</v>
       </c>
       <c r="D7">
-        <v>0.2150756916891589</v>
+        <v>10.9495783436642</v>
       </c>
       <c r="E7">
-        <v>0.4637625380398452</v>
+        <v>3.309014708892089</v>
       </c>
       <c r="F7">
-        <v>0.4221436111419528</v>
+        <v>3.40075843797503</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1447780152514982</v>
+        <v>0.1885059718488306</v>
       </c>
       <c r="C8">
-        <v>0.3355838432446549</v>
+        <v>1.762213756878201</v>
       </c>
       <c r="D8">
-        <v>0.2130007473530765</v>
+        <v>11.06808830893117</v>
       </c>
       <c r="E8">
-        <v>0.4615200400340992</v>
+        <v>3.326873653887561</v>
       </c>
       <c r="F8">
-        <v>0.4648065004488725</v>
+        <v>3.438108980993429</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,19 +611,68 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.8340013360053379</v>
+        <v>-0.1155901121422573</v>
       </c>
       <c r="C9">
-        <v>0.8340013360053379</v>
+        <v>3.549470608441434</v>
       </c>
       <c r="D9">
-        <v>0.6955582284586885</v>
+        <v>26.58323663793598</v>
       </c>
       <c r="E9">
-        <v>0.8340013360053379</v>
+        <v>5.15589338892262</v>
+      </c>
+      <c r="F9">
+        <v>5.646578670017191</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-2.244696353922198</v>
+      </c>
+      <c r="C10">
+        <v>2.375956227084492</v>
+      </c>
+      <c r="D10">
+        <v>17.67984107253042</v>
+      </c>
+      <c r="E10">
+        <v>4.204740309761165</v>
+      </c>
+      <c r="F10">
+        <v>4.105472664824975</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>-0.4278857427398495</v>
+      </c>
+      <c r="C11">
+        <v>0.4278857427398495</v>
+      </c>
+      <c r="D11">
+        <v>0.2403274097267022</v>
+      </c>
+      <c r="E11">
+        <v>0.4902319958210625</v>
+      </c>
+      <c r="F11">
+        <v>0.3383524815533931</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
